--- a/src/main/resources/195-iclyj-cloud/iclyj-common-core_structure.xlsx
+++ b/src/main/resources/195-iclyj-cloud/iclyj-common-core_structure.xlsx
@@ -976,7 +976,7 @@
     <t>getParameterToInt(java.lang.String)</t>
   </si>
   <si>
-    <t>renderString(javax.servlet.http.HttpServletResponse)</t>
+    <t>renderString(javax.servlet.http.HttpServletResponse,java.lang.String)</t>
   </si>
   <si>
     <t>getRequestAttributes()</t>
@@ -1015,7 +1015,7 @@
     <t>setCellVo(java.lang.Object,com.lyj.common.core.annotation.Excel,org.apache.poi.ss.usermodel.Cell)</t>
   </si>
   <si>
-    <t>importTemplateExcel(javax.servlet.http.HttpServletResponse)</t>
+    <t>importTemplateExcel(javax.servlet.http.HttpServletResponse,java.lang.String)</t>
   </si>
   <si>
     <t>createStyles(org.apache.poi.ss.usermodel.Workbook)</t>
@@ -1045,7 +1045,7 @@
     <t>createExcelField()</t>
   </si>
   <si>
-    <t>exportExcel(javax.servlet.http.HttpServletResponse)</t>
+    <t>exportExcel(javax.servlet.http.HttpServletResponse,java.util.List,java.lang.String)</t>
   </si>
   <si>
     <t>getCellValue(org.apache.poi.ss.usermodel.Row,java.lang.Integer)</t>
